--- a/bim_agent/tableConvert.com_D.xlsx
+++ b/bim_agent/tableConvert.com_D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC07F59-D64B-7047-AEEE-6B8BA19BFA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B248D-3FA9-014B-91B9-E3B6DBFD7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="760" windowWidth="22580" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="760" windowWidth="22580" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>

--- a/bim_agent/tableConvert.com_D.xlsx
+++ b/bim_agent/tableConvert.com_D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B248D-3FA9-014B-91B9-E3B6DBFD7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D311B7-EB0E-004D-90FB-CAC89D4B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="760" windowWidth="22580" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="3460" windowWidth="27380" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -140,164 +140,220 @@
     <t>97</t>
   </si>
   <si>
+    <t>IfcSpace (basement)</t>
+  </si>
+  <si>
+    <t>Underground exterior wall + well</t>
+  </si>
+  <si>
+    <t>Not deducted from GFA</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Equipment opening</t>
+  </si>
+  <si>
+    <t>IfcSlab (HasOpening)</t>
+  </si>
+  <si>
+    <t>In slab + small hole</t>
+  </si>
+  <si>
+    <t>Deduct if significant size</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Bridge space</t>
+  </si>
+  <si>
+    <t>IfcSlab (Bridge)</t>
+  </si>
+  <si>
+    <t>Connecting buildings + elevated</t>
+  </si>
+  <si>
+    <t>Count as circulation area</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Central void</t>
+  </si>
+  <si>
+    <t>IfcSpace (multi-floor)</t>
+  </si>
+  <si>
+    <t>IfcOpeningElement (void)</t>
+  </si>
+  <si>
+    <t>Multi-floor + central + large</t>
+  </si>
+  <si>
+    <t>Deduct void from all floors</t>
+  </si>
+  <si>
+    <t>IfcSpace | INTERNAL | H&gt;15m, aspect_ratio&gt;15, has_pipe=T | Super tall+slender+pipe | Plumbing shaft | 88% | Not counted (shaft) | NO |</t>
+  </si>
+  <si>
+    <t>Semi-outdoor space</t>
+  </si>
+  <si>
+    <t>IfcSpace (EXTERNAL=ambiguous)</t>
+  </si>
+  <si>
+    <t>IfcSlab (IsExternal=TRUE, HasRoof=Partial)</t>
+  </si>
+  <si>
+    <t>Has partial enclosure + roof overhang</t>
+  </si>
+  <si>
+    <t>Conditional: count if &gt;3 walls enclosed</t>
+  </si>
+  <si>
+    <t>Sunken plaza</t>
+  </si>
+  <si>
+    <t>IfcSpace (Elevation&lt;0)</t>
+  </si>
+  <si>
+    <t>IfcSlab (IsExternal=TRUE, BelowGrade)</t>
+  </si>
+  <si>
+    <t>Below grade + open to sky</t>
+  </si>
+  <si>
+    <t>Not counted (exterior despite being below)</t>
+  </si>
+  <si>
+    <t>Covered parking</t>
+  </si>
+  <si>
+    <t>IfcSpace (PARKING + HasRoof)</t>
+  </si>
+  <si>
+    <t>IfcSlab (PARKING + Covered)</t>
+  </si>
+  <si>
+    <t>Has roof but open sides</t>
+  </si>
+  <si>
+    <t>Partial (varies by jurisdiction: 0-50%)</t>
+  </si>
+  <si>
+    <t>Mechanical penthouse</t>
+  </si>
+  <si>
+    <t>IfcSpace (Rooftop equipment)</t>
+  </si>
+  <si>
+    <t>IfcSlab (ROOF + Equipment area)</t>
+  </si>
+  <si>
+    <t>On roof + enclosed vs open</t>
+  </si>
+  <si>
+    <t>Conditional: count if fully enclosed</t>
+  </si>
+  <si>
+    <t>Double-height lobby</t>
+  </si>
+  <si>
+    <t>IfcSpace (H&gt;6m, single space)</t>
+  </si>
+  <si>
+    <t>Two IfcSlabs (upper void)</t>
+  </si>
+  <si>
+    <t>Tall ceiling vs mezzanine potential</t>
+  </si>
+  <si>
+    <t>Risk: counted twice if modeled as 2 floors</t>
+  </si>
+  <si>
+    <t>Enclosed bridge</t>
+  </si>
+  <si>
+    <t>IfcSpace (connecting buildings)</t>
+  </si>
+  <si>
+    <t>IfcSlab (Bridge + IsEnclosed)</t>
+  </si>
+  <si>
+    <t>Between buildings + heated</t>
+  </si>
+  <si>
+    <t>Ambiguous: primary vs secondary building</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTIONAL_SHAFT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>BALCONY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUNDATION_SLAB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOF_SLAB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERIOR_FLOOR_SLAB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL_ROOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATRIUM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDOOR_PARKING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHANICAL_ROOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORRIDOR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Light well</t>
-  </si>
-  <si>
-    <t>IfcSpace (basement)</t>
-  </si>
-  <si>
-    <t>Underground exterior wall + well</t>
-  </si>
-  <si>
-    <t>Not deducted from GFA</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Equipment opening</t>
-  </si>
-  <si>
-    <t>IfcSlab (HasOpening)</t>
-  </si>
-  <si>
-    <t>In slab + small hole</t>
-  </si>
-  <si>
-    <t>Deduct if significant size</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Bridge space</t>
-  </si>
-  <si>
-    <t>IfcSlab (Bridge)</t>
-  </si>
-  <si>
-    <t>Connecting buildings + elevated</t>
-  </si>
-  <si>
-    <t>Count as circulation area</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Central void</t>
-  </si>
-  <si>
-    <t>IfcSpace (multi-floor)</t>
-  </si>
-  <si>
-    <t>IfcOpeningElement (void)</t>
-  </si>
-  <si>
-    <t>Multi-floor + central + large</t>
-  </si>
-  <si>
-    <t>Deduct void from all floors</t>
-  </si>
-  <si>
-    <t>IfcSpace | INTERNAL | H&gt;15m, aspect_ratio&gt;15, has_pipe=T | Super tall+slender+pipe | Plumbing shaft | 88% | Not counted (shaft) | NO |</t>
-  </si>
-  <si>
-    <t>Semi-outdoor space</t>
-  </si>
-  <si>
-    <t>IfcSpace (EXTERNAL=ambiguous)</t>
-  </si>
-  <si>
-    <t>IfcSlab (IsExternal=TRUE, HasRoof=Partial)</t>
-  </si>
-  <si>
-    <t>Has partial enclosure + roof overhang</t>
-  </si>
-  <si>
-    <t>Conditional: count if &gt;3 walls enclosed</t>
-  </si>
-  <si>
-    <t>Sunken plaza</t>
-  </si>
-  <si>
-    <t>IfcSpace (Elevation&lt;0)</t>
-  </si>
-  <si>
-    <t>IfcSlab (IsExternal=TRUE, BelowGrade)</t>
-  </si>
-  <si>
-    <t>Below grade + open to sky</t>
-  </si>
-  <si>
-    <t>Not counted (exterior despite being below)</t>
-  </si>
-  <si>
-    <t>Covered parking</t>
-  </si>
-  <si>
-    <t>IfcSpace (PARKING + HasRoof)</t>
-  </si>
-  <si>
-    <t>IfcSlab (PARKING + Covered)</t>
-  </si>
-  <si>
-    <t>Has roof but open sides</t>
-  </si>
-  <si>
-    <t>Partial (varies by jurisdiction: 0-50%)</t>
-  </si>
-  <si>
-    <t>Mechanical penthouse</t>
-  </si>
-  <si>
-    <t>IfcSpace (Rooftop equipment)</t>
-  </si>
-  <si>
-    <t>IfcSlab (ROOF + Equipment area)</t>
-  </si>
-  <si>
-    <t>On roof + enclosed vs open</t>
-  </si>
-  <si>
-    <t>Conditional: count if fully enclosed</t>
-  </si>
-  <si>
-    <t>Double-height lobby</t>
-  </si>
-  <si>
-    <t>IfcSpace (H&gt;6m, single space)</t>
-  </si>
-  <si>
-    <t>Two IfcSlabs (upper void)</t>
-  </si>
-  <si>
-    <t>Tall ceiling vs mezzanine potential</t>
-  </si>
-  <si>
-    <t>Risk: counted twice if modeled as 2 floors</t>
-  </si>
-  <si>
-    <t>Enclosed bridge</t>
-  </si>
-  <si>
-    <t>IfcSpace (connecting buildings)</t>
-  </si>
-  <si>
-    <t>IfcSlab (Bridge + IsEnclosed)</t>
-  </si>
-  <si>
-    <t>Between buildings + heated</t>
-  </si>
-  <si>
-    <t>Ambiguous: primary vs secondary building</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,6 +392,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -357,11 +433,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -704,10 +790,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
@@ -717,10 +803,12 @@
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,348 +824,608 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="18">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="18">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="18">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18">
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="18">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="18">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="18">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="18">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="18">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18">
+      <c r="A36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18">
+      <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="A7" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="18">
+      <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18">
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="18">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="18">
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="18">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="18">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="18">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/bim_agent/tableConvert.com_D.xlsx
+++ b/bim_agent/tableConvert.com_D.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D311B7-EB0E-004D-90FB-CAC89D4B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703DBC4-9116-5B41-B83F-A677164BB94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="3460" windowWidth="27380" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1700" windowWidth="27380" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$H$1:$H$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -793,7 +796,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
@@ -1430,6 +1433,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
